--- a/asset/软件和信息技术服务业重点联系企业月报_template.xlsx
+++ b/asset/软件和信息技术服务业重点联系企业月报_template.xlsx
@@ -351,7 +351,7 @@
     <t>（5）嵌入式系统软件收入≥嵌入式系统软件出口×6.4 2024≥2042×6.4</t>
   </si>
   <si>
-    <t>SE305_2021_F3D057284FA1317AFA3944F54BBEF7D8</t>
+    <t>SE305_2021_C2EA2BEA250672A02A3CC441DF4A7DEF</t>
   </si>
 </sst>
 </file>
